--- a/diary.xlsx
+++ b/diary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aman\Documents\GitHub\RadhaConstructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA099E28-C41C-447C-8083-3CE6E5B1A871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBAA90F-9D31-45FB-97CF-996B9AC80F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D65F8A9-A87A-4882-8C50-AE0F3D04FB76}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="347">
   <si>
     <t>Amount</t>
   </si>
@@ -865,6 +865,216 @@
   </si>
   <si>
     <t>Suresh Singh</t>
+  </si>
+  <si>
+    <t>Ashwini Shahu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash </t>
+  </si>
+  <si>
+    <t>JCB (new side)</t>
+  </si>
+  <si>
+    <t>Ore Ram Thekedar</t>
+  </si>
+  <si>
+    <t>Vandana Singh</t>
+  </si>
+  <si>
+    <t>Thekedar Yadav</t>
+  </si>
+  <si>
+    <t>Niyaj Thekedar</t>
+  </si>
+  <si>
+    <t>1200 sqft  **</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>Line Man</t>
+  </si>
+  <si>
+    <t>Nawaj Thekedar</t>
+  </si>
+  <si>
+    <t>Balu Ram **</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Thekedar</t>
+  </si>
+  <si>
+    <t>New Site (Mitti)</t>
+  </si>
+  <si>
+    <t>Pradeep Kumar Thekedar</t>
+  </si>
+  <si>
+    <t>Kamlesh Kumar</t>
+  </si>
+  <si>
+    <t>Plan Royal City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mama </t>
+  </si>
+  <si>
+    <t>Hori Lal Thekedar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hori Lal </t>
+  </si>
+  <si>
+    <t>Ashwini Sahu</t>
+  </si>
+  <si>
+    <t>Bajari</t>
+  </si>
+  <si>
+    <t>Kamlesh Yadav**</t>
+  </si>
+  <si>
+    <t>Hori Lal</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Royal city</t>
+  </si>
+  <si>
+    <t>Mama Thekedar</t>
+  </si>
+  <si>
+    <t>Tiwari Ji Mistri</t>
+  </si>
+  <si>
+    <t>Mistri</t>
+  </si>
+  <si>
+    <t>Ram Sajeevan</t>
+  </si>
+  <si>
+    <t>Semnapur</t>
+  </si>
+  <si>
+    <t>Pandey **</t>
+  </si>
+  <si>
+    <t>HoriLal</t>
+  </si>
+  <si>
+    <t>Suraj Electric</t>
+  </si>
+  <si>
+    <t>Dilip</t>
+  </si>
+  <si>
+    <t>2000 bricks</t>
+  </si>
+  <si>
+    <t>Plumber (new Side)</t>
+  </si>
+  <si>
+    <t>Santosh</t>
+  </si>
+  <si>
+    <t>POP Putty **</t>
+  </si>
+  <si>
+    <t>3000 bricks</t>
+  </si>
+  <si>
+    <t>Motor repair</t>
+  </si>
+  <si>
+    <t>Foriyaj **</t>
+  </si>
+  <si>
+    <t>4000 bricks</t>
+  </si>
+  <si>
+    <t>Bricks new Site</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Tiles</t>
+  </si>
+  <si>
+    <t>Putty</t>
+  </si>
+  <si>
+    <t>Amit Singh</t>
+  </si>
+  <si>
+    <t>Fan Belt **</t>
+  </si>
+  <si>
+    <t>Bijli Wale Ko</t>
+  </si>
+  <si>
+    <t>Foriyaj</t>
+  </si>
+  <si>
+    <t>Aniket Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putty </t>
+  </si>
+  <si>
+    <t>Ankit Singh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mishra Ji </t>
+  </si>
+  <si>
+    <t>Electrician **</t>
+  </si>
+  <si>
+    <t>13500 bricks</t>
+  </si>
+  <si>
+    <t>Chandani</t>
+  </si>
+  <si>
+    <t>Nikhil **</t>
+  </si>
+  <si>
+    <t>Rinkoo</t>
+  </si>
+  <si>
+    <t>Rinkoo**</t>
+  </si>
+  <si>
+    <t>Mistri**</t>
+  </si>
+  <si>
+    <t>Motor Cycle</t>
+  </si>
+  <si>
+    <t>Tractor</t>
+  </si>
+  <si>
+    <t>Taj**</t>
+  </si>
+  <si>
+    <t>Gupta</t>
+  </si>
+  <si>
+    <t>Mitti **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window </t>
   </si>
 </sst>
 </file>
@@ -966,7 +1176,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1001,9 +1211,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -1013,15 +1220,26 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1337,18 +1555,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960316D9-D5E2-4EB7-BBFB-BE5FCCE4B95A}">
-  <dimension ref="A3:M453"/>
+  <dimension ref="A3:M679"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScale="102" workbookViewId="0">
-      <selection activeCell="L434" sqref="L434"/>
+    <sheetView tabSelected="1" topLeftCell="A662" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
+      <selection activeCell="L671" sqref="L671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" style="13" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="20.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.88671875" style="2"/>
@@ -1362,26 +1580,26 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -1422,7 +1640,7 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>44931</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1481,7 +1699,7 @@
       <c r="A9" s="1">
         <v>4</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>44932</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1570,7 +1788,7 @@
       <c r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>44933</v>
       </c>
       <c r="D13" s="9" t="s">
@@ -1649,7 +1867,7 @@
       <c r="A17" s="1">
         <v>12</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>44936</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -1672,7 +1890,7 @@
       <c r="A18" s="1">
         <v>13</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>44937</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -1743,7 +1961,7 @@
       <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>44938</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -1770,7 +1988,7 @@
       <c r="A22" s="1">
         <v>17</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>44939</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -1831,7 +2049,7 @@
       <c r="A25" s="1">
         <v>20</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>44940</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1918,7 +2136,7 @@
       <c r="A29" s="1">
         <v>24</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>44942</v>
       </c>
       <c r="D29" s="9" t="s">
@@ -1979,7 +2197,7 @@
       <c r="A32" s="1">
         <v>27</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>44944</v>
       </c>
       <c r="D32" s="9" t="s">
@@ -2096,7 +2314,7 @@
       <c r="A38" s="1">
         <v>33</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>44946</v>
       </c>
       <c r="D38" s="9" t="s">
@@ -2119,7 +2337,7 @@
       <c r="A39" s="1">
         <v>34</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>44947</v>
       </c>
       <c r="D39" s="9" t="s">
@@ -2144,7 +2362,7 @@
       <c r="A40" s="1">
         <v>35</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>44948</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -2223,7 +2441,7 @@
       <c r="A44" s="1">
         <v>39</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>44949</v>
       </c>
       <c r="D44" s="9" t="s">
@@ -2308,7 +2526,7 @@
       <c r="A48" s="1">
         <v>43</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>44950</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -2427,7 +2645,7 @@
       <c r="A54" s="1">
         <v>49</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>44951</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -2528,7 +2746,7 @@
       <c r="A59" s="1">
         <v>54</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>44952</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -2608,7 +2826,7 @@
       <c r="A64" s="1">
         <v>58</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>44953</v>
       </c>
       <c r="E64" s="6">
@@ -2670,7 +2888,7 @@
       <c r="A69" s="1">
         <v>62</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>44954</v>
       </c>
       <c r="D69" s="9" t="s">
@@ -2720,7 +2938,7 @@
       <c r="A73" s="1">
         <v>65</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="13">
         <v>44956</v>
       </c>
       <c r="D73" s="9" t="s">
@@ -2740,7 +2958,7 @@
       <c r="A75" s="1">
         <v>66</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>44957</v>
       </c>
       <c r="E75" s="6">
@@ -2859,25 +3077,25 @@
       <c r="K84" s="7"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="9" t="s">
@@ -2906,7 +3124,7 @@
       <c r="A89" s="1">
         <v>1</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="13">
         <v>44958</v>
       </c>
       <c r="E89" s="6">
@@ -2948,7 +3166,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B93" s="14">
+      <c r="B93" s="13">
         <v>44959</v>
       </c>
       <c r="E93" s="6">
@@ -2962,7 +3180,7 @@
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <v>44960</v>
       </c>
       <c r="D94" s="9" t="s">
@@ -3001,7 +3219,7 @@
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B97" s="14">
+      <c r="B97" s="13">
         <v>44961</v>
       </c>
       <c r="D97" s="9" t="s">
@@ -3045,7 +3263,7 @@
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B102" s="14">
+      <c r="B102" s="13">
         <v>44962</v>
       </c>
       <c r="D102" s="9" t="s">
@@ -3062,7 +3280,7 @@
       <c r="K103" s="7"/>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B104" s="14">
+      <c r="B104" s="13">
         <v>44963</v>
       </c>
       <c r="D104" s="9" t="s">
@@ -3109,7 +3327,7 @@
       <c r="K108" s="7"/>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B109" s="14">
+      <c r="B109" s="13">
         <v>44964</v>
       </c>
       <c r="D109" s="9" t="s">
@@ -3138,7 +3356,7 @@
       <c r="K111" s="7"/>
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B112" s="14">
+      <c r="B112" s="13">
         <v>44965</v>
       </c>
       <c r="D112" s="9" t="s">
@@ -3167,7 +3385,7 @@
       <c r="K114" s="7"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="14">
+      <c r="B115" s="13">
         <v>44966</v>
       </c>
       <c r="D115" s="9" t="s">
@@ -3192,7 +3410,7 @@
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="14">
+      <c r="B118" s="13">
         <v>44967</v>
       </c>
       <c r="D118" s="9" t="s">
@@ -3209,7 +3427,7 @@
       <c r="K119" s="7"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B120" s="14">
+      <c r="B120" s="13">
         <v>44968</v>
       </c>
       <c r="D120" s="9" t="s">
@@ -3255,7 +3473,7 @@
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B126" s="14">
+      <c r="B126" s="13">
         <v>44969</v>
       </c>
       <c r="D126" s="9" t="s">
@@ -3296,7 +3514,7 @@
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B131" s="14">
+      <c r="B131" s="13">
         <v>44970</v>
       </c>
       <c r="E131" s="6">
@@ -3351,7 +3569,7 @@
       </c>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B137" s="14">
+      <c r="B137" s="13">
         <v>44971</v>
       </c>
       <c r="D137" s="9" t="s">
@@ -3365,7 +3583,7 @@
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B139" s="14">
+      <c r="B139" s="13">
         <v>44974</v>
       </c>
       <c r="D139" s="9" t="s">
@@ -3406,7 +3624,7 @@
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B144" s="14">
+      <c r="B144" s="13">
         <v>44975</v>
       </c>
       <c r="D144" s="9" t="s">
@@ -3423,7 +3641,7 @@
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B146" s="14">
+      <c r="B146" s="13">
         <v>44976</v>
       </c>
       <c r="D146" s="9" t="s">
@@ -3469,7 +3687,7 @@
       </c>
     </row>
     <row r="152" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B152" s="14">
+      <c r="B152" s="13">
         <v>44977</v>
       </c>
       <c r="D152" s="9" t="s">
@@ -3514,7 +3732,7 @@
       </c>
     </row>
     <row r="156" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B156" s="14">
+      <c r="B156" s="13">
         <v>44978</v>
       </c>
       <c r="E156" s="6">
@@ -3528,7 +3746,7 @@
       </c>
     </row>
     <row r="158" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B158" s="14">
+      <c r="B158" s="13">
         <v>44979</v>
       </c>
       <c r="D158" s="9" t="s">
@@ -3558,7 +3776,7 @@
       </c>
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B162" s="14">
+      <c r="B162" s="13">
         <v>44980</v>
       </c>
       <c r="D162" s="9" t="s">
@@ -3588,7 +3806,7 @@
       </c>
     </row>
     <row r="166" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B166" s="14">
+      <c r="B166" s="13">
         <v>44981</v>
       </c>
       <c r="E166" s="6">
@@ -3640,7 +3858,7 @@
       </c>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B172" s="14">
+      <c r="B172" s="13">
         <v>44982</v>
       </c>
       <c r="D172" s="9" t="s">
@@ -3691,7 +3909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E177" s="6">
         <v>20000</v>
       </c>
@@ -3699,8 +3917,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B179" s="14">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B179" s="13">
         <v>44984</v>
       </c>
       <c r="D179" s="9" t="s">
@@ -3713,7 +3931,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D180" s="9" t="s">
         <v>153</v>
       </c>
@@ -3721,7 +3939,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E181" s="6">
         <v>4000</v>
       </c>
@@ -3729,7 +3947,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E182" s="6">
         <v>2000</v>
       </c>
@@ -3737,7 +3955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E183" s="6">
         <v>500</v>
       </c>
@@ -3745,7 +3963,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D184" s="9" t="s">
         <v>155</v>
       </c>
@@ -3753,8 +3971,8 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B186" s="14">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B186" s="13">
         <v>44985</v>
       </c>
       <c r="D186" s="9" t="s">
@@ -3770,7 +3988,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D187" s="9" t="s">
         <v>93</v>
       </c>
@@ -3784,29 +4002,30 @@
         <v>75690</v>
       </c>
     </row>
-    <row r="188" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="189" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="189" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H189" s="8">
         <f>SUM(E89:E187)</f>
         <v>1949480</v>
       </c>
     </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B191" s="12" t="s">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-      <c r="E191" s="12"/>
-      <c r="F191" s="12"/>
-      <c r="G191" s="12"/>
-      <c r="H191" s="12"/>
-      <c r="I191" s="12"/>
-      <c r="J191" s="12"/>
-      <c r="K191" s="12"/>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B192" s="14" t="s">
+      <c r="B191" s="17"/>
+      <c r="C191" s="17"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="17"/>
+      <c r="K191" s="17"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B192" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D192" s="9" t="s">
@@ -3832,7 +4051,7 @@
       </c>
     </row>
     <row r="194" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B194" s="14">
+      <c r="B194" s="13">
         <v>44986</v>
       </c>
       <c r="D194" s="9" t="s">
@@ -3916,7 +4135,7 @@
       <c r="K201" s="7"/>
     </row>
     <row r="202" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B202" s="14">
+      <c r="B202" s="13">
         <v>44987</v>
       </c>
       <c r="D202" s="9" t="s">
@@ -3954,7 +4173,7 @@
       <c r="K205" s="7"/>
     </row>
     <row r="206" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B206" s="14">
+      <c r="B206" s="13">
         <v>44988</v>
       </c>
       <c r="D206" s="9" t="s">
@@ -4025,7 +4244,7 @@
       <c r="K212" s="7"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B213" s="14">
+      <c r="B213" s="13">
         <v>44989</v>
       </c>
       <c r="E213" s="6">
@@ -4069,7 +4288,7 @@
       <c r="K217" s="7"/>
     </row>
     <row r="218" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B218" s="14">
+      <c r="B218" s="13">
         <v>44990</v>
       </c>
       <c r="D218" s="9" t="s">
@@ -4121,7 +4340,7 @@
       <c r="K222" s="7"/>
     </row>
     <row r="223" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B223" s="14">
+      <c r="B223" s="13">
         <v>44991</v>
       </c>
       <c r="D223" s="9" t="s">
@@ -4151,7 +4370,7 @@
     <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="C225" s="2"/>
-      <c r="D225" s="13" t="s">
+      <c r="D225" s="12" t="s">
         <v>153</v>
       </c>
       <c r="E225" s="6">
@@ -4161,7 +4380,7 @@
     <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="C226" s="2"/>
-      <c r="D226" s="13" t="s">
+      <c r="D226" s="12" t="s">
         <v>93</v>
       </c>
       <c r="E226" s="6">
@@ -4174,7 +4393,7 @@
     <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="C227" s="2"/>
-      <c r="D227" s="13" t="s">
+      <c r="D227" s="12" t="s">
         <v>179</v>
       </c>
       <c r="E227" s="6">
@@ -4184,15 +4403,15 @@
     <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="C228" s="2"/>
-      <c r="D228" s="13"/>
+      <c r="D228" s="12"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
-      <c r="B229" s="14">
+      <c r="B229" s="13">
         <v>44992</v>
       </c>
       <c r="C229" s="2"/>
-      <c r="D229" s="13" t="s">
+      <c r="D229" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E229" s="6">
@@ -4205,7 +4424,7 @@
     <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="C230" s="2"/>
-      <c r="D230" s="13" t="s">
+      <c r="D230" s="12" t="s">
         <v>180</v>
       </c>
       <c r="E230" s="6">
@@ -4215,15 +4434,15 @@
     <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="C231" s="2"/>
-      <c r="D231" s="13"/>
+      <c r="D231" s="12"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
-      <c r="B232" s="14">
+      <c r="B232" s="13">
         <v>44995</v>
       </c>
       <c r="C232" s="2"/>
-      <c r="D232" s="13" t="s">
+      <c r="D232" s="12" t="s">
         <v>181</v>
       </c>
       <c r="E232" s="6">
@@ -4239,7 +4458,7 @@
     <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="C233" s="2"/>
-      <c r="D233" s="13" t="s">
+      <c r="D233" s="12" t="s">
         <v>181</v>
       </c>
       <c r="E233" s="6">
@@ -4252,7 +4471,7 @@
     <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="C234" s="2"/>
-      <c r="D234" s="13" t="s">
+      <c r="D234" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E234" s="6">
@@ -4265,15 +4484,15 @@
     <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="C235" s="2"/>
-      <c r="D235" s="13"/>
+      <c r="D235" s="12"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
-      <c r="B236" s="14">
+      <c r="B236" s="13">
         <v>44996</v>
       </c>
       <c r="C236" s="2"/>
-      <c r="D236" s="13" t="s">
+      <c r="D236" s="12" t="s">
         <v>182</v>
       </c>
       <c r="E236" s="6">
@@ -4283,15 +4502,15 @@
     <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="C237" s="2"/>
-      <c r="D237" s="13"/>
+      <c r="D237" s="12"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
-      <c r="B238" s="14">
+      <c r="B238" s="13">
         <v>44998</v>
       </c>
       <c r="C238" s="2"/>
-      <c r="D238" s="13" t="s">
+      <c r="D238" s="12" t="s">
         <v>183</v>
       </c>
       <c r="E238" s="6">
@@ -4304,15 +4523,15 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="C239" s="2"/>
-      <c r="D239" s="13"/>
+      <c r="D239" s="12"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
-      <c r="B240" s="14">
+      <c r="B240" s="13">
         <v>44999</v>
       </c>
       <c r="C240" s="2"/>
-      <c r="D240" s="13"/>
+      <c r="D240" s="12"/>
       <c r="E240" s="6">
         <v>2100</v>
       </c>
@@ -4326,7 +4545,7 @@
     <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="C241" s="2"/>
-      <c r="D241" s="13"/>
+      <c r="D241" s="12"/>
       <c r="E241" s="6">
         <v>500</v>
       </c>
@@ -4337,15 +4556,15 @@
     <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="C242" s="2"/>
-      <c r="D242" s="13"/>
+      <c r="D242" s="12"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
-      <c r="B243" s="14">
+      <c r="B243" s="13">
         <v>45000</v>
       </c>
       <c r="C243" s="2"/>
-      <c r="D243" s="13" t="s">
+      <c r="D243" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E243" s="6">
@@ -4358,7 +4577,7 @@
     <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="C244" s="2"/>
-      <c r="D244" s="13" t="s">
+      <c r="D244" s="12" t="s">
         <v>186</v>
       </c>
       <c r="E244" s="6">
@@ -4368,7 +4587,7 @@
     <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="C245" s="2"/>
-      <c r="D245" s="13" t="s">
+      <c r="D245" s="12" t="s">
         <v>76</v>
       </c>
       <c r="E245" s="6">
@@ -4378,7 +4597,7 @@
     <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="C246" s="2"/>
-      <c r="D246" s="13" t="s">
+      <c r="D246" s="12" t="s">
         <v>187</v>
       </c>
       <c r="E246" s="6">
@@ -4391,15 +4610,15 @@
     <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="C247" s="2"/>
-      <c r="D247" s="13"/>
+      <c r="D247" s="12"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
-      <c r="B248" s="14">
+      <c r="B248" s="13">
         <v>45001</v>
       </c>
       <c r="C248" s="2"/>
-      <c r="D248" s="13"/>
+      <c r="D248" s="12"/>
       <c r="E248" s="6">
         <v>205000</v>
       </c>
@@ -4413,7 +4632,7 @@
     <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="C249" s="2"/>
-      <c r="D249" s="13"/>
+      <c r="D249" s="12"/>
       <c r="E249" s="6">
         <v>2000</v>
       </c>
@@ -4424,7 +4643,7 @@
     <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="C250" s="2"/>
-      <c r="D250" s="13"/>
+      <c r="D250" s="12"/>
       <c r="E250" s="6">
         <v>19000</v>
       </c>
@@ -4435,7 +4654,7 @@
     <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="C251" s="2"/>
-      <c r="D251" s="13" t="s">
+      <c r="D251" s="12" t="s">
         <v>192</v>
       </c>
       <c r="E251" s="6">
@@ -4445,7 +4664,7 @@
     <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="C252" s="2"/>
-      <c r="D252" s="13"/>
+      <c r="D252" s="12"/>
       <c r="E252" s="6">
         <v>550</v>
       </c>
@@ -4456,7 +4675,7 @@
     <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="C253" s="2"/>
-      <c r="D253" s="13" t="s">
+      <c r="D253" s="12" t="s">
         <v>194</v>
       </c>
       <c r="E253" s="6">
@@ -4466,7 +4685,7 @@
     <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="C254" s="2"/>
-      <c r="D254" s="13" t="s">
+      <c r="D254" s="12" t="s">
         <v>195</v>
       </c>
       <c r="E254" s="6">
@@ -4479,15 +4698,15 @@
     <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="C255" s="2"/>
-      <c r="D255" s="13"/>
+      <c r="D255" s="12"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
-      <c r="B256" s="14">
+      <c r="B256" s="13">
         <v>45002</v>
       </c>
       <c r="C256" s="2"/>
-      <c r="D256" s="13" t="s">
+      <c r="D256" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E256" s="6">
@@ -4503,7 +4722,7 @@
     <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="C257" s="2"/>
-      <c r="D257" s="13" t="s">
+      <c r="D257" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E257" s="6">
@@ -4516,7 +4735,7 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="C258" s="2"/>
-      <c r="D258" s="13"/>
+      <c r="D258" s="12"/>
       <c r="E258" s="6">
         <v>15400</v>
       </c>
@@ -4527,7 +4746,7 @@
     <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="C259" s="2"/>
-      <c r="D259" s="13"/>
+      <c r="D259" s="12"/>
       <c r="E259" s="6">
         <v>8800</v>
       </c>
@@ -4538,7 +4757,7 @@
     <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="C260" s="2"/>
-      <c r="D260" s="13" t="s">
+      <c r="D260" s="12" t="s">
         <v>190</v>
       </c>
       <c r="E260" s="6">
@@ -4551,15 +4770,15 @@
     <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="C261" s="2"/>
-      <c r="D261" s="13"/>
+      <c r="D261" s="12"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
-      <c r="B262" s="14">
+      <c r="B262" s="13">
         <v>45003</v>
       </c>
       <c r="C262" s="2"/>
-      <c r="D262" s="13"/>
+      <c r="D262" s="12"/>
       <c r="E262" s="6">
         <v>100000</v>
       </c>
@@ -4573,7 +4792,7 @@
     <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="C263" s="2"/>
-      <c r="D263" s="13"/>
+      <c r="D263" s="12"/>
       <c r="E263" s="6">
         <v>15000</v>
       </c>
@@ -4586,10 +4805,10 @@
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C264" s="2"/>
-      <c r="D264" s="13"/>
+      <c r="D264" s="12"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B265" s="14">
+      <c r="B265" s="13">
         <v>45004</v>
       </c>
       <c r="D265" s="9" t="s">
@@ -4624,7 +4843,7 @@
       <c r="K268" s="7"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B269" s="14">
+      <c r="B269" s="13">
         <v>45005</v>
       </c>
       <c r="D269" s="9" t="s">
@@ -4662,7 +4881,7 @@
       <c r="K272" s="7"/>
     </row>
     <row r="273" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B273" s="14">
+      <c r="B273" s="13">
         <v>45006</v>
       </c>
       <c r="D273" s="9" t="s">
@@ -4698,7 +4917,7 @@
       <c r="K276" s="7"/>
     </row>
     <row r="277" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B277" s="14">
+      <c r="B277" s="13">
         <v>45007</v>
       </c>
       <c r="D277" s="9" t="s">
@@ -4769,7 +4988,7 @@
       <c r="K283" s="7"/>
     </row>
     <row r="284" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B284" s="14">
+      <c r="B284" s="13">
         <v>45008</v>
       </c>
       <c r="D284" s="9" t="s">
@@ -4786,7 +5005,7 @@
       <c r="K285" s="7"/>
     </row>
     <row r="286" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B286" s="14">
+      <c r="B286" s="13">
         <v>45009</v>
       </c>
       <c r="D286" s="9" t="s">
@@ -4839,7 +5058,7 @@
       <c r="K290" s="7"/>
     </row>
     <row r="291" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B291" s="14">
+      <c r="B291" s="13">
         <v>45012</v>
       </c>
       <c r="D291" s="9" t="s">
@@ -4856,7 +5075,7 @@
       </c>
     </row>
     <row r="292" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B292" s="14">
+      <c r="B292" s="13">
         <v>45012</v>
       </c>
       <c r="D292" s="9" t="s">
@@ -4873,7 +5092,7 @@
       </c>
     </row>
     <row r="294" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B294" s="14">
+      <c r="B294" s="13">
         <v>45013</v>
       </c>
       <c r="D294" s="9" t="s">
@@ -4892,7 +5111,7 @@
       </c>
     </row>
     <row r="297" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B297" s="14">
+      <c r="B297" s="13">
         <v>45014</v>
       </c>
       <c r="E297" s="6">
@@ -4936,7 +5155,7 @@
       </c>
     </row>
     <row r="302" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B302" s="14">
+      <c r="B302" s="13">
         <v>45015</v>
       </c>
       <c r="E302" s="6">
@@ -4981,17 +5200,15 @@
       <c r="E305" s="6">
         <v>5000</v>
       </c>
-      <c r="G305" s="18"/>
       <c r="J305" s="2" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D306" s="2"/>
-      <c r="E306" s="2"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B307" s="14">
+      <c r="B307" s="13">
         <v>45016</v>
       </c>
       <c r="D307" s="9" t="s">
@@ -5002,28 +5219,28 @@
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H309" s="15">
+      <c r="H309" s="14">
         <f>SUM(E194:E307)</f>
         <v>3109850</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A311" s="12" t="s">
+      <c r="A311" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B311" s="12"/>
-      <c r="C311" s="12"/>
-      <c r="D311" s="12"/>
-      <c r="E311" s="12"/>
-      <c r="F311" s="12"/>
-      <c r="G311" s="12"/>
-      <c r="H311" s="12"/>
-      <c r="I311" s="12"/>
-      <c r="J311" s="12"/>
-      <c r="K311" s="12"/>
+      <c r="B311" s="17"/>
+      <c r="C311" s="17"/>
+      <c r="D311" s="17"/>
+      <c r="E311" s="17"/>
+      <c r="F311" s="17"/>
+      <c r="G311" s="17"/>
+      <c r="H311" s="17"/>
+      <c r="I311" s="17"/>
+      <c r="J311" s="17"/>
+      <c r="K311" s="17"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B312" s="14" t="s">
+      <c r="B312" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D312" s="9" t="s">
@@ -5049,7 +5266,7 @@
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B314" s="14">
+      <c r="B314" s="13">
         <v>45017</v>
       </c>
       <c r="D314" s="9" t="s">
@@ -5085,7 +5302,7 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B318" s="14">
+      <c r="B318" s="13">
         <v>45018</v>
       </c>
       <c r="E318" s="6">
@@ -5122,7 +5339,7 @@
       </c>
     </row>
     <row r="324" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B324" s="14">
+      <c r="B324" s="13">
         <v>45020</v>
       </c>
       <c r="D324" s="9" t="s">
@@ -5144,7 +5361,7 @@
       </c>
     </row>
     <row r="327" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B327" s="14">
+      <c r="B327" s="13">
         <v>45021</v>
       </c>
       <c r="D327" s="9" t="s">
@@ -5189,7 +5406,7 @@
       </c>
     </row>
     <row r="331" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B331" s="14">
+      <c r="B331" s="13">
         <v>45022</v>
       </c>
       <c r="D331" s="9" t="s">
@@ -5208,7 +5425,7 @@
       </c>
     </row>
     <row r="334" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B334" s="14">
+      <c r="B334" s="13">
         <v>45023</v>
       </c>
       <c r="D334" s="9" t="s">
@@ -5219,7 +5436,7 @@
       </c>
     </row>
     <row r="336" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B336" s="14">
+      <c r="B336" s="13">
         <v>45028</v>
       </c>
       <c r="D336" s="9" t="s">
@@ -5275,7 +5492,7 @@
       </c>
     </row>
     <row r="341" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B341" s="14">
+      <c r="B341" s="13">
         <v>45029</v>
       </c>
       <c r="D341" s="9" t="s">
@@ -5286,7 +5503,7 @@
       </c>
     </row>
     <row r="343" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B343" s="14">
+      <c r="B343" s="13">
         <v>45032</v>
       </c>
       <c r="D343" s="9" t="s">
@@ -5303,7 +5520,7 @@
       </c>
     </row>
     <row r="345" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B345" s="14">
+      <c r="B345" s="13">
         <v>45033</v>
       </c>
       <c r="D345" s="9" t="s">
@@ -5323,7 +5540,7 @@
       <c r="K346" s="7"/>
     </row>
     <row r="347" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B347" s="14">
+      <c r="B347" s="13">
         <v>45034</v>
       </c>
       <c r="D347" s="9" t="s">
@@ -5341,7 +5558,7 @@
       <c r="K348" s="7"/>
     </row>
     <row r="349" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B349" s="14">
+      <c r="B349" s="13">
         <v>45035</v>
       </c>
       <c r="D349" s="9" t="s">
@@ -5359,7 +5576,7 @@
       <c r="K350" s="7"/>
     </row>
     <row r="351" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B351" s="14">
+      <c r="B351" s="13">
         <v>45037</v>
       </c>
       <c r="D351" s="9" t="s">
@@ -5440,7 +5657,7 @@
       <c r="K359" s="7"/>
     </row>
     <row r="360" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B360" s="14">
+      <c r="B360" s="13">
         <v>45041</v>
       </c>
       <c r="D360" s="9" t="s">
@@ -5475,7 +5692,7 @@
       <c r="K363" s="7"/>
     </row>
     <row r="364" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B364" s="14">
+      <c r="B364" s="13">
         <v>45045</v>
       </c>
       <c r="D364" s="9" t="s">
@@ -5486,12 +5703,12 @@
       </c>
     </row>
     <row r="365" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B365" s="2"/>
+      <c r="B365" s="22"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E365" s="2">
+      <c r="E365" s="6">
         <v>5000</v>
       </c>
       <c r="I365" s="2" t="s">
@@ -5553,7 +5770,7 @@
       <c r="K371" s="7"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B372" s="14">
+      <c r="B372" s="13">
         <v>45046</v>
       </c>
       <c r="E372" s="6">
@@ -5568,33 +5785,33 @@
       <c r="K373" s="7"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H374" s="15">
+      <c r="H374" s="14">
         <f>SUM(E314:E372)</f>
         <v>2342000</v>
       </c>
       <c r="K374" s="7"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="H375" s="16"/>
+      <c r="H375" s="15"/>
       <c r="K375" s="7"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A376" s="12" t="s">
+      <c r="A376" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B376" s="12"/>
-      <c r="C376" s="12"/>
-      <c r="D376" s="12"/>
-      <c r="E376" s="12"/>
-      <c r="F376" s="12"/>
-      <c r="G376" s="12"/>
-      <c r="H376" s="12"/>
-      <c r="I376" s="12"/>
-      <c r="J376" s="12"/>
-      <c r="K376" s="12"/>
+      <c r="B376" s="17"/>
+      <c r="C376" s="17"/>
+      <c r="D376" s="17"/>
+      <c r="E376" s="17"/>
+      <c r="F376" s="17"/>
+      <c r="G376" s="17"/>
+      <c r="H376" s="17"/>
+      <c r="I376" s="17"/>
+      <c r="J376" s="17"/>
+      <c r="K376" s="17"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B377" s="14" t="s">
+      <c r="B377" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D377" s="9" t="s">
@@ -5620,7 +5837,7 @@
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B379" s="14">
+      <c r="B379" s="13">
         <v>45047</v>
       </c>
       <c r="E379" s="6">
@@ -5655,7 +5872,7 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B384" s="14">
+      <c r="B384" s="13">
         <v>45051</v>
       </c>
       <c r="D384" s="9" t="s">
@@ -5666,7 +5883,7 @@
       </c>
     </row>
     <row r="386" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B386" s="14">
+      <c r="B386" s="13">
         <v>45052</v>
       </c>
       <c r="D386" s="9" t="s">
@@ -5691,7 +5908,7 @@
       </c>
     </row>
     <row r="389" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B389" s="14">
+      <c r="B389" s="13">
         <v>45053</v>
       </c>
       <c r="E389" s="6">
@@ -5741,7 +5958,7 @@
       </c>
     </row>
     <row r="394" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B394" s="14">
+      <c r="B394" s="13">
         <v>45054</v>
       </c>
       <c r="D394" s="9" t="s">
@@ -5779,7 +5996,7 @@
       </c>
     </row>
     <row r="399" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B399" s="14">
+      <c r="B399" s="13">
         <v>45058</v>
       </c>
       <c r="D399" s="9" t="s">
@@ -5825,7 +6042,7 @@
       </c>
     </row>
     <row r="405" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B405" s="14">
+      <c r="B405" s="13">
         <v>45059</v>
       </c>
       <c r="D405" s="9" t="s">
@@ -5844,7 +6061,7 @@
       </c>
     </row>
     <row r="408" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B408" s="14">
+      <c r="B408" s="13">
         <v>45062</v>
       </c>
       <c r="D408" s="9" t="s">
@@ -5855,7 +6072,7 @@
       </c>
     </row>
     <row r="410" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B410" s="14">
+      <c r="B410" s="13">
         <v>45064</v>
       </c>
       <c r="D410" s="9" t="s">
@@ -5882,7 +6099,7 @@
       </c>
     </row>
     <row r="414" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B414" s="14">
+      <c r="B414" s="13">
         <v>45067</v>
       </c>
       <c r="D414" s="9" t="s">
@@ -5893,7 +6110,7 @@
       </c>
     </row>
     <row r="416" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B416" s="14">
+      <c r="B416" s="13">
         <v>45010</v>
       </c>
       <c r="E416" s="6">
@@ -5920,7 +6137,7 @@
       </c>
     </row>
     <row r="420" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B420" s="14">
+      <c r="B420" s="13">
         <v>45072</v>
       </c>
       <c r="D420" s="9" t="s">
@@ -5970,7 +6187,7 @@
       <c r="K424" s="7"/>
     </row>
     <row r="426" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B426" s="14">
+      <c r="B426" s="13">
         <v>45074</v>
       </c>
       <c r="D426" s="9" t="s">
@@ -6023,7 +6240,7 @@
       <c r="K430" s="7"/>
     </row>
     <row r="431" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B431" s="14">
+      <c r="B431" s="13">
         <v>45075</v>
       </c>
       <c r="E431" s="6">
@@ -6041,8 +6258,8 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="434" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B434" s="14">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B434" s="13">
         <v>45076</v>
       </c>
       <c r="D434" s="9" t="s">
@@ -6055,8 +6272,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B435" s="14">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B435" s="13">
         <v>45077</v>
       </c>
       <c r="E435" s="6">
@@ -6066,7 +6283,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D436" s="9" t="s">
         <v>276</v>
       </c>
@@ -6077,135 +6294,2064 @@
         <v>32</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="H438" s="15">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H438" s="14">
         <f>SUM(E379:E436)</f>
         <v>1821800</v>
       </c>
-      <c r="M438" s="17">
-        <f>SUM(H438,H374,H309,H189,H84)</f>
-        <v>11925380</v>
-      </c>
-    </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A440" s="12" t="s">
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A440" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B440" s="12"/>
-      <c r="C440" s="12"/>
-      <c r="D440" s="12"/>
-      <c r="E440" s="12"/>
-      <c r="F440" s="12"/>
-      <c r="G440" s="12"/>
-      <c r="H440" s="12"/>
-      <c r="I440" s="12"/>
-      <c r="J440" s="12"/>
-      <c r="K440" s="12"/>
-    </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A442" s="12" t="s">
+      <c r="B440" s="17"/>
+      <c r="C440" s="17"/>
+      <c r="D440" s="17"/>
+      <c r="E440" s="17"/>
+      <c r="F440" s="17"/>
+      <c r="G440" s="17"/>
+      <c r="H440" s="17"/>
+      <c r="I440" s="17"/>
+      <c r="J440" s="17"/>
+      <c r="K440" s="17"/>
+    </row>
+    <row r="441" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="1"/>
+      <c r="B441" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C441" s="1"/>
+      <c r="D441" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E441" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G441" s="2"/>
+      <c r="H441" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I441" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J441" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K441" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="19"/>
+      <c r="E442" s="20"/>
+    </row>
+    <row r="443" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="19">
+        <v>45079</v>
+      </c>
+      <c r="D443" t="s">
+        <v>277</v>
+      </c>
+      <c r="E443" s="20">
+        <v>17000</v>
+      </c>
+      <c r="I443" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="19"/>
+      <c r="D444" t="s">
+        <v>277</v>
+      </c>
+      <c r="E444" s="20">
+        <v>20000</v>
+      </c>
+      <c r="I444" t="s">
+        <v>30</v>
+      </c>
+      <c r="J444">
+        <v>75798</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="19"/>
+      <c r="E445" s="20"/>
+    </row>
+    <row r="446" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="19">
+        <v>45083</v>
+      </c>
+      <c r="E446" s="20">
+        <v>26000</v>
+      </c>
+      <c r="I446" t="s">
+        <v>278</v>
+      </c>
+      <c r="J446" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="19"/>
+      <c r="E447" s="20">
+        <v>26000</v>
+      </c>
+      <c r="I447" t="s">
+        <v>30</v>
+      </c>
+      <c r="J447" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="19"/>
+      <c r="E448" s="20">
+        <v>11000</v>
+      </c>
+      <c r="J448" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="449" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="19"/>
+      <c r="D449" t="s">
+        <v>280</v>
+      </c>
+      <c r="E449" s="20">
+        <v>15000</v>
+      </c>
+      <c r="I449" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="450" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="19"/>
+      <c r="E450" s="20"/>
+    </row>
+    <row r="451" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="21">
+        <v>45084</v>
+      </c>
+      <c r="E451" s="20">
+        <v>10000</v>
+      </c>
+      <c r="I451" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="452" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="19"/>
+      <c r="E452" s="20">
+        <v>5000</v>
+      </c>
+      <c r="I452" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="453" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="19"/>
+      <c r="D453" t="s">
+        <v>281</v>
+      </c>
+      <c r="E453" s="20">
+        <v>100000</v>
+      </c>
+      <c r="I453" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="454" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="19"/>
+      <c r="D454" t="s">
+        <v>50</v>
+      </c>
+      <c r="E454" s="20">
+        <v>10000</v>
+      </c>
+      <c r="I454" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="455" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="19"/>
+      <c r="D455" t="s">
+        <v>37</v>
+      </c>
+      <c r="E455" s="20">
+        <v>4000</v>
+      </c>
+      <c r="I455" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="456" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="19"/>
+      <c r="E456" s="20"/>
+    </row>
+    <row r="457" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="19">
+        <v>45085</v>
+      </c>
+      <c r="E457" s="20">
+        <v>50000</v>
+      </c>
+      <c r="I457" t="s">
+        <v>33</v>
+      </c>
+      <c r="J457" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="458" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="19"/>
+      <c r="E458" s="20">
+        <v>22000</v>
+      </c>
+      <c r="I458" t="s">
+        <v>30</v>
+      </c>
+      <c r="J458" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="459" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="19"/>
+      <c r="D459" t="s">
+        <v>282</v>
+      </c>
+      <c r="E459" s="20">
+        <v>15000</v>
+      </c>
+      <c r="I459" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="460" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="19"/>
+      <c r="D460" t="s">
+        <v>283</v>
+      </c>
+      <c r="E460" s="20">
+        <v>10000</v>
+      </c>
+      <c r="J460" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="461" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="19"/>
+      <c r="D461" t="s">
+        <v>58</v>
+      </c>
+      <c r="E461" s="20">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="462" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="19"/>
+      <c r="E462" s="20"/>
+    </row>
+    <row r="463" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="19">
+        <v>45086</v>
+      </c>
+      <c r="E463" s="20">
+        <v>20000</v>
+      </c>
+      <c r="I463" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="464" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="19"/>
+      <c r="E464" s="20">
+        <v>20000</v>
+      </c>
+      <c r="I464" t="s">
+        <v>30</v>
+      </c>
+      <c r="J464">
+        <v>75611</v>
+      </c>
+    </row>
+    <row r="465" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="19"/>
+      <c r="E465" s="20">
+        <v>25000</v>
+      </c>
+      <c r="J465" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="466" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="19"/>
+      <c r="E466" s="20"/>
+    </row>
+    <row r="467" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="19">
+        <v>45087</v>
+      </c>
+      <c r="E467" s="20">
+        <v>10000</v>
+      </c>
+      <c r="J467" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="468" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="19"/>
+      <c r="E468" s="20">
+        <v>2000</v>
+      </c>
+      <c r="J468" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="469" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="19"/>
+      <c r="E469" s="20">
+        <v>1000</v>
+      </c>
+      <c r="J469" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="470" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="19"/>
+      <c r="E470" s="20"/>
+    </row>
+    <row r="471" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="19">
+        <v>45088</v>
+      </c>
+      <c r="E471" s="20">
+        <v>10000</v>
+      </c>
+      <c r="I471" t="s">
+        <v>33</v>
+      </c>
+      <c r="J471" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="472" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="19"/>
+      <c r="E472" s="20">
+        <v>18000</v>
+      </c>
+      <c r="I472" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="473" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="19"/>
+      <c r="E473" s="20">
+        <v>7000</v>
+      </c>
+      <c r="J473" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="474" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="19"/>
+      <c r="D474" t="s">
+        <v>271</v>
+      </c>
+      <c r="E474" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="475" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="19"/>
+      <c r="D475" t="s">
+        <v>286</v>
+      </c>
+      <c r="E475" s="20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="476" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="19"/>
+      <c r="E476" s="20">
+        <v>5000</v>
+      </c>
+      <c r="J476" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="477" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="19"/>
+      <c r="E477" s="20"/>
+    </row>
+    <row r="478" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="19">
+        <v>45089</v>
+      </c>
+      <c r="D478" t="s">
+        <v>287</v>
+      </c>
+      <c r="E478" s="20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="479" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="19"/>
+      <c r="D479" t="s">
+        <v>50</v>
+      </c>
+      <c r="E479" s="20">
+        <v>50000</v>
+      </c>
+      <c r="I479" t="s">
+        <v>30</v>
+      </c>
+      <c r="J479">
+        <v>75615</v>
+      </c>
+    </row>
+    <row r="480" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="19"/>
+      <c r="D480" t="s">
+        <v>50</v>
+      </c>
+      <c r="E480" s="20">
+        <v>50000</v>
+      </c>
+      <c r="I480" t="s">
+        <v>30</v>
+      </c>
+      <c r="J480">
+        <v>75616</v>
+      </c>
+    </row>
+    <row r="481" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="19"/>
+      <c r="D481" t="s">
+        <v>58</v>
+      </c>
+      <c r="E481" s="20">
+        <v>100000</v>
+      </c>
+      <c r="I481" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="482" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="19"/>
+      <c r="E482" s="20"/>
+    </row>
+    <row r="483" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="19">
+        <v>45090</v>
+      </c>
+      <c r="E483" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="484" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="19"/>
+      <c r="D484" t="s">
+        <v>288</v>
+      </c>
+      <c r="E484" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="485" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="19"/>
+      <c r="E485" s="20">
+        <v>500</v>
+      </c>
+      <c r="J485" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="486" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="19"/>
+      <c r="D486" t="s">
+        <v>290</v>
+      </c>
+      <c r="E486" s="20">
+        <v>15000</v>
+      </c>
+      <c r="I486" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="487" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="19"/>
+      <c r="E487" s="20"/>
+    </row>
+    <row r="488" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="19">
+        <v>45091</v>
+      </c>
+      <c r="E488" s="20">
+        <v>18000</v>
+      </c>
+      <c r="J488" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="489" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="19"/>
+      <c r="D489" t="s">
+        <v>49</v>
+      </c>
+      <c r="E489" s="20">
+        <v>500</v>
+      </c>
+      <c r="J489" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="490" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="19"/>
+      <c r="D490" t="s">
+        <v>42</v>
+      </c>
+      <c r="E490" s="20">
+        <v>1500</v>
+      </c>
+      <c r="J490" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="491" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="19"/>
+      <c r="E491" s="20"/>
+    </row>
+    <row r="492" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="19">
+        <v>45092</v>
+      </c>
+      <c r="D492" t="s">
+        <v>292</v>
+      </c>
+      <c r="E492" s="20">
+        <v>39000</v>
+      </c>
+      <c r="I492" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="493" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="19"/>
+      <c r="D493" t="s">
+        <v>293</v>
+      </c>
+      <c r="E493" s="20">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="494" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="19"/>
+      <c r="E494" s="20"/>
+    </row>
+    <row r="495" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="19">
+        <v>45093</v>
+      </c>
+      <c r="E495" s="20">
+        <v>9500</v>
+      </c>
+      <c r="J495" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="496" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="19"/>
+      <c r="E496" s="20">
+        <v>1000</v>
+      </c>
+      <c r="J496" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="497" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="19"/>
+      <c r="D497" t="s">
+        <v>50</v>
+      </c>
+      <c r="E497" s="20">
+        <v>2000</v>
+      </c>
+      <c r="J497" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="498" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="19"/>
+      <c r="E498" s="20"/>
+    </row>
+    <row r="499" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="19">
+        <v>45094</v>
+      </c>
+      <c r="D499" t="s">
+        <v>295</v>
+      </c>
+      <c r="E499" s="20">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="500" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="19"/>
+      <c r="D500" t="s">
+        <v>296</v>
+      </c>
+      <c r="E500" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="501" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="19"/>
+      <c r="E501" s="20">
+        <v>500</v>
+      </c>
+      <c r="J501" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="502" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="19"/>
+      <c r="E502" s="20">
+        <v>13000</v>
+      </c>
+      <c r="J502" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="503" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="19"/>
+      <c r="E503" s="20"/>
+    </row>
+    <row r="504" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="19">
+        <v>45095</v>
+      </c>
+      <c r="D504" t="s">
+        <v>297</v>
+      </c>
+      <c r="E504" s="20">
+        <v>5000</v>
+      </c>
+      <c r="I504" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="505" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="19"/>
+      <c r="E505" s="20"/>
+    </row>
+    <row r="506" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="19">
+        <v>45096</v>
+      </c>
+      <c r="D506" t="s">
+        <v>297</v>
+      </c>
+      <c r="E506" s="20">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="507" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="19"/>
+      <c r="D507" t="s">
+        <v>298</v>
+      </c>
+      <c r="E507" s="20">
+        <v>40000</v>
+      </c>
+      <c r="J507" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="508" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="19"/>
+      <c r="E508" s="20">
+        <v>32000</v>
+      </c>
+      <c r="I508" t="s">
+        <v>30</v>
+      </c>
+      <c r="J508" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="509" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="19"/>
+      <c r="E509" s="20">
+        <v>42000</v>
+      </c>
+      <c r="I509" t="s">
+        <v>30</v>
+      </c>
+      <c r="J509" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="510" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="19"/>
+      <c r="D510" t="s">
+        <v>300</v>
+      </c>
+      <c r="E510" s="20"/>
+    </row>
+    <row r="511" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="19"/>
+      <c r="E511" s="20"/>
+    </row>
+    <row r="512" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="19">
+        <v>45097</v>
+      </c>
+      <c r="D512" t="s">
+        <v>301</v>
+      </c>
+      <c r="E512" s="20">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="513" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="19"/>
+      <c r="D513" t="s">
+        <v>302</v>
+      </c>
+      <c r="E513" s="20">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="514" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="19"/>
+      <c r="E514" s="20"/>
+    </row>
+    <row r="515" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="19">
+        <v>45098</v>
+      </c>
+      <c r="D515" t="s">
+        <v>137</v>
+      </c>
+      <c r="E515" s="20">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="516" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="19"/>
+      <c r="E516" s="20">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="517" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="19"/>
+      <c r="E517" s="20">
+        <v>50000</v>
+      </c>
+      <c r="I517" t="s">
+        <v>30</v>
+      </c>
+      <c r="J517" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="518" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="19"/>
+      <c r="E518" s="20">
+        <v>12000</v>
+      </c>
+      <c r="I518" t="s">
+        <v>33</v>
+      </c>
+      <c r="J518" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="519" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="19"/>
+      <c r="E519" s="20"/>
+    </row>
+    <row r="520" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="19">
+        <v>45100</v>
+      </c>
+      <c r="D520" t="s">
+        <v>141</v>
+      </c>
+      <c r="E520" s="20">
+        <v>2500</v>
+      </c>
+      <c r="J520" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="521" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="19"/>
+      <c r="E521" s="20">
+        <v>4000</v>
+      </c>
+      <c r="J521" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="522" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="19"/>
+      <c r="E522" s="20"/>
+    </row>
+    <row r="523" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="19">
+        <v>45101</v>
+      </c>
+      <c r="E523" s="20">
+        <v>10000</v>
+      </c>
+      <c r="I523" t="s">
+        <v>30</v>
+      </c>
+      <c r="J523" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="524" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="19"/>
+      <c r="E524" s="20">
+        <v>1000</v>
+      </c>
+      <c r="J524" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="525" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="19"/>
+      <c r="D525" t="s">
+        <v>304</v>
+      </c>
+      <c r="E525" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="526" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="19"/>
+      <c r="E526" s="20"/>
+    </row>
+    <row r="527" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="19">
+        <v>45102</v>
+      </c>
+      <c r="D527" t="s">
+        <v>305</v>
+      </c>
+      <c r="E527" s="20">
+        <v>5000</v>
+      </c>
+      <c r="J527" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="528" spans="2:10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="19"/>
+      <c r="D528" t="s">
+        <v>307</v>
+      </c>
+      <c r="E528" s="20">
+        <v>5500</v>
+      </c>
+      <c r="J528" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="19"/>
+      <c r="E529" s="20">
+        <v>1500</v>
+      </c>
+      <c r="J529" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="19"/>
+      <c r="D530" t="s">
+        <v>309</v>
+      </c>
+      <c r="E530" s="20">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="531" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="19"/>
+      <c r="E531" s="20"/>
+    </row>
+    <row r="532" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="19">
+        <v>45103</v>
+      </c>
+      <c r="D532" t="s">
+        <v>302</v>
+      </c>
+      <c r="E532" s="20">
+        <v>20000</v>
+      </c>
+      <c r="I532" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="19"/>
+      <c r="D533" t="s">
+        <v>50</v>
+      </c>
+      <c r="E533" s="20">
+        <v>5000</v>
+      </c>
+      <c r="J533" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="19"/>
+      <c r="D534" t="s">
+        <v>301</v>
+      </c>
+      <c r="E534" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="19"/>
+      <c r="E535" s="20"/>
+    </row>
+    <row r="536" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="19">
+        <v>45104</v>
+      </c>
+      <c r="D536" t="s">
+        <v>311</v>
+      </c>
+      <c r="E536" s="20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="19"/>
+      <c r="E537" s="20"/>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H538" s="14">
+        <f>SUM(E443:E536)</f>
+        <v>1264500</v>
+      </c>
+    </row>
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H539" s="23"/>
+    </row>
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A540" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B442" s="12"/>
-      <c r="C442" s="12"/>
-      <c r="D442" s="12"/>
-      <c r="E442" s="12"/>
-      <c r="F442" s="12"/>
-      <c r="G442" s="12"/>
-      <c r="H442" s="12"/>
-      <c r="I442" s="12"/>
-      <c r="J442" s="12"/>
-      <c r="K442" s="12"/>
-    </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A444" s="12" t="s">
+      <c r="B540" s="17"/>
+      <c r="C540" s="17"/>
+      <c r="D540" s="17"/>
+      <c r="E540" s="17"/>
+      <c r="F540" s="17"/>
+      <c r="G540" s="17"/>
+      <c r="H540" s="17"/>
+      <c r="I540" s="17"/>
+      <c r="J540" s="17"/>
+      <c r="K540" s="17"/>
+    </row>
+    <row r="541" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A541" s="1"/>
+      <c r="B541" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C541" s="1"/>
+      <c r="D541" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E541" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F541" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G541" s="2"/>
+      <c r="H541" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I541" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J541" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K541" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="19"/>
+      <c r="E542" s="20"/>
+    </row>
+    <row r="543" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="19">
+        <v>45110</v>
+      </c>
+      <c r="D543" t="s">
+        <v>312</v>
+      </c>
+      <c r="E543" s="20">
+        <v>100000</v>
+      </c>
+      <c r="I543" t="s">
+        <v>32</v>
+      </c>
+      <c r="K543" s="18">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="19"/>
+      <c r="E544" s="20"/>
+    </row>
+    <row r="545" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="19">
+        <v>44989</v>
+      </c>
+      <c r="D545" t="s">
+        <v>301</v>
+      </c>
+      <c r="E545" s="20">
+        <v>1000</v>
+      </c>
+      <c r="K545" s="18">
+        <v>45453</v>
+      </c>
+    </row>
+    <row r="546" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="19"/>
+      <c r="D546" t="s">
+        <v>307</v>
+      </c>
+      <c r="E546" s="20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="547" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="19"/>
+      <c r="E547" s="20"/>
+    </row>
+    <row r="548" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="19">
+        <v>45114</v>
+      </c>
+      <c r="D548" t="s">
+        <v>301</v>
+      </c>
+      <c r="E548" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="549" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="19"/>
+      <c r="D549" t="s">
+        <v>50</v>
+      </c>
+      <c r="E549" s="20">
+        <v>30000</v>
+      </c>
+      <c r="I549" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="550" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="19"/>
+      <c r="E550" s="20"/>
+    </row>
+    <row r="551" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="19">
+        <v>45115</v>
+      </c>
+      <c r="D551" t="s">
+        <v>50</v>
+      </c>
+      <c r="E551" s="20">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="552" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="19"/>
+      <c r="E552" s="20"/>
+    </row>
+    <row r="553" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="19">
+        <v>45117</v>
+      </c>
+      <c r="E553" s="20">
+        <v>9800</v>
+      </c>
+      <c r="J553" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="554" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="19"/>
+      <c r="E554" s="20">
+        <v>5000</v>
+      </c>
+      <c r="J554" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="555" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="19"/>
+      <c r="D555" t="s">
+        <v>93</v>
+      </c>
+      <c r="E555" s="20">
+        <v>40000</v>
+      </c>
+      <c r="I555" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="556" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="19"/>
+      <c r="D556" t="s">
+        <v>301</v>
+      </c>
+      <c r="E556" s="20">
+        <v>1000</v>
+      </c>
+      <c r="J556" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="557" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="19"/>
+      <c r="E557" s="20"/>
+    </row>
+    <row r="558" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="19">
+        <v>45121</v>
+      </c>
+      <c r="E558" s="20">
+        <v>1000</v>
+      </c>
+      <c r="J558" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="559" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B559" s="19"/>
+      <c r="D559" t="s">
+        <v>6</v>
+      </c>
+      <c r="E559" s="20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="560" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B560" s="19"/>
+      <c r="E560" s="20"/>
+    </row>
+    <row r="561" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B561" s="19">
+        <v>45122</v>
+      </c>
+      <c r="D561" t="s">
+        <v>297</v>
+      </c>
+      <c r="E561" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="562" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B562" s="19"/>
+      <c r="E562" s="20"/>
+    </row>
+    <row r="563" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B563" s="19">
+        <v>45124</v>
+      </c>
+      <c r="E563" s="20">
+        <v>1500</v>
+      </c>
+      <c r="J563" t="s">
+        <v>316</v>
+      </c>
+      <c r="K563" s="18">
+        <v>45458</v>
+      </c>
+    </row>
+    <row r="564" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B564" s="19"/>
+      <c r="E564" s="20"/>
+    </row>
+    <row r="565" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B565" s="19">
+        <v>45127</v>
+      </c>
+      <c r="D565" t="s">
+        <v>50</v>
+      </c>
+      <c r="E565" s="20">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="566" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B566" s="19"/>
+      <c r="E566" s="20"/>
+    </row>
+    <row r="567" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B567" s="19">
+        <v>45132</v>
+      </c>
+      <c r="D567" t="s">
+        <v>50</v>
+      </c>
+      <c r="E567" s="20">
+        <v>250000</v>
+      </c>
+      <c r="I567" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="568" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B568" s="19"/>
+      <c r="D568" t="s">
+        <v>276</v>
+      </c>
+      <c r="E568" s="20">
+        <v>680000</v>
+      </c>
+      <c r="I568" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="569" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B569" s="19"/>
+      <c r="E569" s="20">
+        <v>1000</v>
+      </c>
+      <c r="I569" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="570" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B570" s="19"/>
+      <c r="E570" s="20"/>
+    </row>
+    <row r="571" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B571" s="19">
+        <v>45134</v>
+      </c>
+      <c r="D571" t="s">
+        <v>50</v>
+      </c>
+      <c r="E571" s="20">
+        <v>59000</v>
+      </c>
+      <c r="J571" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="572" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B572" s="19"/>
+      <c r="E572" s="20"/>
+    </row>
+    <row r="573" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B573" s="19">
+        <v>45136</v>
+      </c>
+      <c r="E573" s="20">
+        <v>18500</v>
+      </c>
+      <c r="J573" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="574" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B574" s="19"/>
+      <c r="D574" t="s">
+        <v>237</v>
+      </c>
+      <c r="E574" s="20">
+        <v>500</v>
+      </c>
+      <c r="J574" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="575" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B575" s="19"/>
+      <c r="D575" t="s">
+        <v>237</v>
+      </c>
+      <c r="E575" s="20">
+        <v>500</v>
+      </c>
+      <c r="J575" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="576" spans="2:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B576" s="19"/>
+      <c r="E576" s="20"/>
+    </row>
+    <row r="577" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B577" s="19">
+        <v>45137</v>
+      </c>
+      <c r="D577" t="s">
+        <v>319</v>
+      </c>
+      <c r="E577" s="20">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="578" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B578" s="19"/>
+      <c r="E578" s="20">
+        <v>25000</v>
+      </c>
+      <c r="J578" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="579" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B579" s="19"/>
+      <c r="E579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B580" s="13">
+        <v>45138</v>
+      </c>
+      <c r="E580" s="20">
+        <v>25000</v>
+      </c>
+      <c r="J580" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="581" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B581" s="19"/>
+      <c r="D581" t="s">
+        <v>41</v>
+      </c>
+      <c r="E581" s="20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="582" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B582" s="19"/>
+      <c r="D582" t="s">
+        <v>322</v>
+      </c>
+      <c r="E582" s="20">
+        <v>20000</v>
+      </c>
+      <c r="J582" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="583" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B583" s="19"/>
+      <c r="E583" s="20"/>
+    </row>
+    <row r="584" spans="1:11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B584" s="19"/>
+      <c r="E584" s="20"/>
+      <c r="H584" s="24">
+        <f>SUM(E543:E582)</f>
+        <v>1310800</v>
+      </c>
+    </row>
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A586" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B444" s="12"/>
-      <c r="C444" s="12"/>
-      <c r="D444" s="12"/>
-      <c r="E444" s="12"/>
-      <c r="F444" s="12"/>
-      <c r="G444" s="12"/>
-      <c r="H444" s="12"/>
-      <c r="I444" s="12"/>
-      <c r="J444" s="12"/>
-      <c r="K444" s="12"/>
-    </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A447" s="12" t="s">
+      <c r="B586" s="17"/>
+      <c r="C586" s="17"/>
+      <c r="D586" s="17"/>
+      <c r="E586" s="17"/>
+      <c r="F586" s="17"/>
+      <c r="G586" s="17"/>
+      <c r="H586" s="17"/>
+      <c r="I586" s="17"/>
+      <c r="J586" s="17"/>
+      <c r="K586" s="17"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B588" s="13">
+        <v>45141</v>
+      </c>
+      <c r="E588" s="6">
+        <v>76000</v>
+      </c>
+      <c r="J588" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E589" s="6">
+        <v>1500</v>
+      </c>
+      <c r="J589" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E590" s="6">
+        <v>500</v>
+      </c>
+      <c r="J590" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D591" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="E591" s="6">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D592" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E592" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="594" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B594" s="13">
+        <v>45142</v>
+      </c>
+      <c r="D594" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E594" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="596" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B596" s="13">
+        <v>45143</v>
+      </c>
+      <c r="D596" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E596" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="597" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E597" s="6">
+        <v>500</v>
+      </c>
+      <c r="J597" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="599" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B599" s="13">
+        <v>45144</v>
+      </c>
+      <c r="D599" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="E599" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="600" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E600" s="6">
+        <v>5000</v>
+      </c>
+      <c r="J600" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="602" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B602" s="13">
+        <v>45145</v>
+      </c>
+      <c r="D602" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="E602" s="6">
+        <v>40000</v>
+      </c>
+      <c r="I602" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J602" s="2">
+        <v>702975</v>
+      </c>
+    </row>
+    <row r="603" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D603" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E603" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="604" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D604" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E604" s="6">
+        <v>30000</v>
+      </c>
+      <c r="J604" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="606" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B606" s="13">
+        <v>45146</v>
+      </c>
+      <c r="D606" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E606" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="607" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D607" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E607" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J607" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="608" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D608" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E608" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="609" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D609" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="E609" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="611" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B611" s="13">
+        <v>45148</v>
+      </c>
+      <c r="D611" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E611" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="613" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B613" s="13">
+        <v>45149</v>
+      </c>
+      <c r="D613" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E613" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="615" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B615" s="13">
+        <v>45150</v>
+      </c>
+      <c r="D615" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E615" s="6">
+        <v>70000</v>
+      </c>
+      <c r="I615" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="616" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E616" s="6">
+        <v>5000</v>
+      </c>
+      <c r="J616" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="618" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B618" s="13">
+        <v>45151</v>
+      </c>
+      <c r="D618" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E618" s="6">
+        <v>87500</v>
+      </c>
+      <c r="J618" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="619" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D619" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E619" s="6">
+        <v>25500</v>
+      </c>
+      <c r="J619" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="620" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D620" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E620" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="621" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D621" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E621" s="6">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="623" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B623" s="13">
+        <v>45152</v>
+      </c>
+      <c r="E623" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J623" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="624" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D624" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E624" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="626" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B626" s="13">
+        <v>45154</v>
+      </c>
+      <c r="D626" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E626" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="628" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B628" s="13">
+        <v>45155</v>
+      </c>
+      <c r="E628" s="6">
+        <v>50000</v>
+      </c>
+      <c r="J628" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="629" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D629" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E629" s="6">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="630" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D630" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E630" s="6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="631" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E631" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J631" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="633" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B633" s="13">
+        <v>45156</v>
+      </c>
+      <c r="D633" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E633" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="635" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B635" s="13">
+        <v>45157</v>
+      </c>
+      <c r="D635" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E635" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="636" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D636" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E636" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J636" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="637" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D637" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E637" s="6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="638" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E638" s="6">
+        <v>4000</v>
+      </c>
+      <c r="J638" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="639" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D639" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E639" s="6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="640" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E640" s="6">
+        <v>800</v>
+      </c>
+      <c r="J640" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="641" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E641" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J641" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="643" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B643" s="13">
+        <v>45163</v>
+      </c>
+      <c r="E643" s="6">
+        <v>3000</v>
+      </c>
+      <c r="J643" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="644" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E644" s="6">
+        <v>3000</v>
+      </c>
+      <c r="J644" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="645" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D645" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E645" s="6">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="646" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D646" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E646" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="648" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B648" s="13">
+        <v>45165</v>
+      </c>
+      <c r="E648" s="6">
+        <v>1200</v>
+      </c>
+      <c r="J648" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="650" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B650" s="13">
+        <v>45013</v>
+      </c>
+      <c r="D650" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="E650" s="6">
+        <v>24000</v>
+      </c>
+      <c r="J650" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="652" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B652" s="13">
+        <v>45014</v>
+      </c>
+      <c r="D652" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E652" s="6">
+        <v>289500</v>
+      </c>
+    </row>
+    <row r="653" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E653" s="6">
+        <v>1500</v>
+      </c>
+      <c r="J653" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="654" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E654" s="6">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="655" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E655" s="6">
+        <v>5000</v>
+      </c>
+      <c r="J655" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="656" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="E656" s="6">
+        <v>10000</v>
+      </c>
+      <c r="J656" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E657" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B659" s="13">
+        <v>45168</v>
+      </c>
+      <c r="E659" s="6">
+        <v>50000</v>
+      </c>
+      <c r="I659" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J659" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D660" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E660" s="6">
+        <v>50000</v>
+      </c>
+      <c r="I660" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D661" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E661" s="6">
+        <v>50000</v>
+      </c>
+      <c r="I661" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D662" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E662" s="6">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E663" s="6">
+        <v>7500</v>
+      </c>
+      <c r="J663" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E664" s="6">
+        <v>28000</v>
+      </c>
+      <c r="I664" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J664" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E665" s="6">
+        <v>12000</v>
+      </c>
+      <c r="I665" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J665" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H667" s="14">
+        <f>SUM(E588:E665)</f>
+        <v>1483800</v>
+      </c>
+      <c r="M667" s="16">
+        <f>SUM(H438,H374,H309,H189,H84,H667,H584,H538)</f>
+        <v>15984480</v>
+      </c>
+    </row>
+    <row r="669" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A669" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B447" s="12"/>
-      <c r="C447" s="12"/>
-      <c r="D447" s="12"/>
-      <c r="E447" s="12"/>
-      <c r="F447" s="12"/>
-      <c r="G447" s="12"/>
-      <c r="H447" s="12"/>
-      <c r="I447" s="12"/>
-      <c r="J447" s="12"/>
-      <c r="K447" s="12"/>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A449" s="12" t="s">
+      <c r="B669" s="17"/>
+      <c r="C669" s="17"/>
+      <c r="D669" s="17"/>
+      <c r="E669" s="17"/>
+      <c r="F669" s="17"/>
+      <c r="G669" s="17"/>
+      <c r="H669" s="17"/>
+      <c r="I669" s="17"/>
+      <c r="J669" s="17"/>
+      <c r="K669" s="17"/>
+    </row>
+    <row r="671" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A671" s="2"/>
+      <c r="B671" s="2"/>
+      <c r="C671" s="2"/>
+      <c r="D671" s="2"/>
+      <c r="E671" s="2"/>
+    </row>
+    <row r="672" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A672" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B449" s="12"/>
-      <c r="C449" s="12"/>
-      <c r="D449" s="12"/>
-      <c r="E449" s="12"/>
-      <c r="F449" s="12"/>
-      <c r="G449" s="12"/>
-      <c r="H449" s="12"/>
-      <c r="I449" s="12"/>
-      <c r="J449" s="12"/>
-      <c r="K449" s="12"/>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A451" s="12" t="s">
+      <c r="B672" s="17"/>
+      <c r="C672" s="17"/>
+      <c r="D672" s="17"/>
+      <c r="E672" s="17"/>
+      <c r="F672" s="17"/>
+      <c r="G672" s="17"/>
+      <c r="H672" s="17"/>
+      <c r="I672" s="17"/>
+      <c r="J672" s="17"/>
+      <c r="K672" s="17"/>
+    </row>
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A673" s="2"/>
+      <c r="B673" s="2"/>
+      <c r="C673" s="2"/>
+      <c r="D673" s="2"/>
+      <c r="E673" s="2"/>
+    </row>
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A675" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B451" s="12"/>
-      <c r="C451" s="12"/>
-      <c r="D451" s="12"/>
-      <c r="E451" s="12"/>
-      <c r="F451" s="12"/>
-      <c r="G451" s="12"/>
-      <c r="H451" s="12"/>
-      <c r="I451" s="12"/>
-      <c r="J451" s="12"/>
-      <c r="K451" s="12"/>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A453" s="12" t="s">
+      <c r="B675" s="17"/>
+      <c r="C675" s="17"/>
+      <c r="D675" s="17"/>
+      <c r="E675" s="17"/>
+      <c r="F675" s="17"/>
+      <c r="G675" s="17"/>
+      <c r="H675" s="17"/>
+      <c r="I675" s="17"/>
+      <c r="J675" s="17"/>
+      <c r="K675" s="17"/>
+    </row>
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A679" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B453" s="12"/>
-      <c r="C453" s="12"/>
-      <c r="D453" s="12"/>
-      <c r="E453" s="12"/>
-      <c r="F453" s="12"/>
-      <c r="G453" s="12"/>
-      <c r="H453" s="12"/>
-      <c r="I453" s="12"/>
-      <c r="J453" s="12"/>
-      <c r="K453" s="12"/>
+      <c r="B679" s="17"/>
+      <c r="C679" s="17"/>
+      <c r="D679" s="17"/>
+      <c r="E679" s="17"/>
+      <c r="F679" s="17"/>
+      <c r="G679" s="17"/>
+      <c r="H679" s="17"/>
+      <c r="I679" s="17"/>
+      <c r="J679" s="17"/>
+      <c r="K679" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A444:K444"/>
-    <mergeCell ref="A447:K447"/>
-    <mergeCell ref="A449:K449"/>
-    <mergeCell ref="A451:K451"/>
-    <mergeCell ref="A453:K453"/>
+    <mergeCell ref="A440:K440"/>
+    <mergeCell ref="A540:K540"/>
+    <mergeCell ref="A191:K191"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A86:K86"/>
-    <mergeCell ref="B191:K191"/>
     <mergeCell ref="A311:K311"/>
     <mergeCell ref="A376:K376"/>
-    <mergeCell ref="A440:K440"/>
-    <mergeCell ref="A442:K442"/>
+    <mergeCell ref="A586:K586"/>
+    <mergeCell ref="A669:K669"/>
+    <mergeCell ref="A672:K672"/>
+    <mergeCell ref="A675:K675"/>
+    <mergeCell ref="A679:K679"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
